--- a/src/main/resources/xlsx/week_limits.xlsx
+++ b/src/main/resources/xlsx/week_limits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>5а</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Пиу</t>
+  </si>
+  <si>
+    <t>Физ-ра1</t>
+  </si>
+  <si>
+    <t>Физ-ра2</t>
+  </si>
+  <si>
+    <t>Английский2</t>
   </si>
 </sst>
 </file>
@@ -481,135 +490,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="24" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -624,69 +645,78 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -701,69 +731,78 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -778,69 +817,78 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -855,69 +903,78 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -932,69 +989,78 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1009,43 +1075,52 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
       <c r="F9">
         <v>2</v>
       </c>
@@ -1053,31 +1128,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1086,43 +1161,52 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
       <c r="F10">
         <v>2</v>
       </c>
@@ -1130,31 +1214,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1163,43 +1247,52 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
       <c r="F11">
         <v>2</v>
       </c>
@@ -1207,31 +1300,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1240,75 +1333,84 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1323,69 +1425,78 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1400,22 +1511,31 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1423,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1432,37 +1552,37 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>2</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1477,27 +1597,36 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1506,40 +1635,40 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1548,75 +1677,84 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>2</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1625,75 +1763,84 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>2</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>2</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1702,39 +1849,48 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>2</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1743,28 +1899,28 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1779,39 +1935,48 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
         <v>4</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1820,28 +1985,28 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>5</v>
       </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1856,39 +2021,48 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
         <v>4</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1897,28 +2071,28 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>3</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1933,39 +2107,48 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
         <v>4</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1974,28 +2157,28 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2010,37 +2193,46 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
         <v>4</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/xlsx/week_limits.xlsx
+++ b/src/main/resources/xlsx/week_limits.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Diamond Doge\IdeaProjects\GA\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiksanov\IdeaProjects\GA\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,13 +492,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="24" width="10.125" customWidth="1"/>
+    <col min="23" max="24" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -2235,5 +2235,6 @@
     <row r="31" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>